--- a/CourseRequests.xlsx
+++ b/CourseRequests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livewsd1-my.sharepoint.com/personal/jrempelsmith_wsd1_org/Documents/Documents/2025-26/Timetabling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{7B8A4692-86F6-4C0E-AD85-C438CBD207D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B050DB9C-B5C7-4335-9354-1E8DB18D4B93}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{7B8A4692-86F6-4C0E-AD85-C438CBD207D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00D7DC32-16AF-4CC0-92E9-EB36E06FC42D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F5141CB-B63B-4335-BABF-E467193D4BBD}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8F5141CB-B63B-4335-BABF-E467193D4BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>Course</t>
   </si>
@@ -558,6 +558,15 @@
   </si>
   <si>
     <t>WOOR4S</t>
+  </si>
+  <si>
+    <t>List grade</t>
+  </si>
+  <si>
+    <t>Can be taught with</t>
+  </si>
+  <si>
+    <t>Test (T/F): Are there disproportionally more grade g-1's taking this grade g class than would be expected?</t>
   </si>
 </sst>
 </file>
@@ -624,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -632,14 +641,8 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -648,14 +651,24 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,6 +685,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -991,15 +1008,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD8ABAA-8E45-4DDF-8B68-3FE37B294DD1}">
-  <dimension ref="A1:J166"/>
+  <dimension ref="A1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1027,8 +1051,17 @@
       <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J1" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1041,18 +1074,30 @@
       <c r="D2" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="4">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3">
         <v>71</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>3</v>
       </c>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <f>CHOOSE(MID(A2, LEN(A2)-1, 1), 9, 10, 11, 12)</f>
+        <v>12</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" t="str">
+        <f>IF(J2=11, IF(F2&gt;=SUM(G2:H2)/3, TRUE, ""), "")</f>
+        <v/>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(J2=12, IF(G2&gt;=SUM(H2)/3, TRUE, ""), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1065,22 +1110,33 @@
       <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="4">
+      <c r="E3" s="5"/>
+      <c r="F3" s="3">
         <v>5</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>29</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="3">
         <v>11</v>
       </c>
-      <c r="I3" s="6">
-        <v>2</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" s="4">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J66" si="0">CHOOSE(MID(A3, LEN(A3)-1, 1), 9, 10, 11, 12)</f>
+        <v>11</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L66" si="1">IF(J3=11, IF(F3&gt;=SUM(G3:H3)/3, TRUE, ""), "")</f>
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M66" si="2">IF(J3=12, IF(G3&gt;=SUM(H3)/3, TRUE, ""), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1093,18 +1149,29 @@
       <c r="D4" s="2">
         <v>22</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="4">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="3">
         <v>30</v>
       </c>
-      <c r="I4" s="6">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1117,20 +1184,31 @@
       <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4">
+      <c r="E5" s="5"/>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
         <v>37</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="6">
-        <v>2</v>
-      </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H5" s="5"/>
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -1143,64 +1221,97 @@
       <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="4">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3">
         <v>3</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="3">
         <v>39</v>
       </c>
-      <c r="I6" s="6">
-        <v>2</v>
-      </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="4">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2">
         <v>13</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="2">
         <v>8</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="4">
-        <v>2</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
         <v>19</v>
       </c>
-      <c r="I8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1213,20 +1324,31 @@
       <c r="D9" s="2">
         <v>5</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="4">
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3">
         <v>13</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="3">
         <v>30</v>
       </c>
-      <c r="I9" s="6">
-        <v>2</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M9" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1239,46 +1361,68 @@
       <c r="D10" s="2">
         <v>8</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="4">
+      <c r="E10" s="5"/>
+      <c r="F10" s="3">
         <v>13</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>27</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="3">
         <v>4</v>
       </c>
-      <c r="I10" s="6">
-        <v>2</v>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L10" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2">
         <v>26</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="2">
         <v>5</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="4">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="3">
         <v>9</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="3">
         <v>22</v>
       </c>
-      <c r="I11" s="6">
-        <v>2</v>
-      </c>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M11" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -1291,20 +1435,31 @@
       <c r="D12" s="2">
         <v>32</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="4">
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="3">
         <v>9</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>31</v>
       </c>
-      <c r="I12" s="6">
-        <v>2</v>
-      </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1317,22 +1472,33 @@
       <c r="D13" s="2">
         <v>36</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="4">
+      <c r="E13" s="5"/>
+      <c r="F13" s="3">
         <v>45</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>104</v>
       </c>
-      <c r="H13" s="4">
-        <v>12</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="H13" s="3">
+        <v>12</v>
+      </c>
+      <c r="I13" s="4">
         <v>5</v>
       </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L13" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1345,20 +1511,31 @@
       <c r="D14" s="2">
         <v>11</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="4">
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3">
         <v>16</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>79</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4">
         <v>3</v>
       </c>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1371,20 +1548,31 @@
       <c r="D15" s="2">
         <v>1</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="4">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3">
         <v>3</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="3">
         <v>85</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="4">
         <v>3</v>
       </c>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
@@ -1397,22 +1585,33 @@
       <c r="D16" s="2">
         <v>1</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="4">
-        <v>2</v>
-      </c>
-      <c r="G16" s="4">
+      <c r="E16" s="5"/>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
         <v>27</v>
       </c>
-      <c r="H16" s="4">
-        <v>2</v>
-      </c>
-      <c r="I16" s="6">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,20 +1624,31 @@
       <c r="D17" s="2">
         <v>5</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="4">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="3">
         <v>6</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="3">
         <v>23</v>
       </c>
-      <c r="I17" s="6">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -1451,20 +1661,31 @@
       <c r="D18" s="2">
         <v>21</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="4">
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="3">
         <v>4</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="3">
         <v>25</v>
       </c>
-      <c r="I18" s="6">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -1477,22 +1698,33 @@
       <c r="D19" s="2">
         <v>6</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="4">
+      <c r="E19" s="5"/>
+      <c r="F19" s="3">
         <v>6</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>127</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>39</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="4">
         <v>5</v>
       </c>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -1505,42 +1737,64 @@
       <c r="D20" s="2">
         <v>30</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="4">
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3">
         <v>10</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>121</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="4">
         <v>4</v>
       </c>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="2">
         <v>23</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="4">
-        <v>2</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3">
         <v>21</v>
       </c>
-      <c r="I21" s="6">
-        <v>1</v>
-      </c>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1553,22 +1807,33 @@
       <c r="D22" s="2">
         <v>2</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="4">
+      <c r="E22" s="5"/>
+      <c r="F22" s="3">
         <v>3</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>21</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>11</v>
       </c>
-      <c r="I22" s="6">
-        <v>2</v>
-      </c>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I22" s="4">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1581,66 +1846,99 @@
       <c r="D23" s="2">
         <v>5</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="4">
-        <v>1</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3">
         <v>31</v>
       </c>
-      <c r="I23" s="6">
-        <v>2</v>
-      </c>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I23" s="4">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="2">
         <v>61</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="4">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="3">
         <v>60</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6">
+      <c r="G24" s="5"/>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4">
         <v>3</v>
       </c>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="2">
         <v>40</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="4">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="3">
         <v>19</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>19</v>
       </c>
-      <c r="H25" s="4">
-        <v>2</v>
-      </c>
-      <c r="I25" s="6">
-        <v>2</v>
-      </c>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H25" s="3">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L25" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -1650,183 +1948,271 @@
       <c r="C26" s="2">
         <v>1</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="4">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="3">
         <v>8</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>20</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>7</v>
       </c>
-      <c r="I26" s="6">
-        <v>2</v>
-      </c>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I26" s="4">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="2">
         <v>40</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="4">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="3">
         <v>6</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>28</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>6</v>
       </c>
-      <c r="I27" s="6">
-        <v>2</v>
-      </c>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I27" s="4">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B28" s="2">
         <v>23</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="4">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="3">
         <v>8</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>15</v>
       </c>
-      <c r="I28" s="6">
-        <v>1</v>
-      </c>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M28" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="2">
         <v>23</v>
       </c>
-      <c r="C29" s="7"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="2">
         <v>1</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="4">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="3">
         <v>5</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>19</v>
       </c>
-      <c r="I29" s="6">
-        <v>1</v>
-      </c>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="2">
         <v>27</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="4">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="3">
         <v>5</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <v>22</v>
       </c>
-      <c r="I30" s="6">
-        <v>1</v>
-      </c>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="2">
         <v>26</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="4">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="3">
         <v>4</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <v>22</v>
       </c>
-      <c r="I31" s="6">
-        <v>1</v>
-      </c>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="2">
         <v>1</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="4">
-        <v>2</v>
-      </c>
-      <c r="I32" s="6">
-        <v>1</v>
-      </c>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="3">
+        <v>2</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="2">
         <v>17</v>
       </c>
-      <c r="C33" s="7"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="2">
         <v>1</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="4">
-        <v>2</v>
-      </c>
-      <c r="H33" s="4">
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="3">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3">
         <v>16</v>
       </c>
-      <c r="I33" s="6">
-        <v>1</v>
-      </c>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
@@ -1839,72 +2225,105 @@
       <c r="D34" s="2">
         <v>1</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="4">
-        <v>2</v>
-      </c>
-      <c r="G34" s="4">
+      <c r="E34" s="5"/>
+      <c r="F34" s="3">
+        <v>2</v>
+      </c>
+      <c r="G34" s="3">
         <v>21</v>
       </c>
-      <c r="H34" s="4">
-        <v>1</v>
-      </c>
-      <c r="I34" s="6">
-        <v>1</v>
-      </c>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="4">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="2">
         <v>16</v>
       </c>
-      <c r="C35" s="7"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="7"/>
-      <c r="F35" s="4">
-        <v>1</v>
-      </c>
-      <c r="G35" s="4">
+      <c r="E35" s="5"/>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
         <v>15</v>
       </c>
-      <c r="H35" s="4">
-        <v>1</v>
-      </c>
-      <c r="I35" s="6">
-        <v>1</v>
-      </c>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="4">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="2">
         <v>24</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="4">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="3">
         <v>20</v>
       </c>
-      <c r="G36" s="4">
-        <v>2</v>
-      </c>
-      <c r="H36" s="4">
-        <v>2</v>
-      </c>
-      <c r="I36" s="6">
-        <v>1</v>
-      </c>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G36" s="3">
+        <v>2</v>
+      </c>
+      <c r="H36" s="3">
+        <v>2</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
@@ -1914,65 +2333,98 @@
       <c r="C37" s="2">
         <v>1</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="4">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="3">
         <v>8</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <v>5</v>
       </c>
-      <c r="I37" s="6">
-        <v>1</v>
-      </c>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="2">
         <v>6</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="4">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="3">
         <v>6</v>
       </c>
-      <c r="I38" s="6">
-        <v>1</v>
-      </c>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="2">
         <v>55</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="4">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="3">
         <v>53</v>
       </c>
-      <c r="G39" s="4">
-        <v>1</v>
-      </c>
-      <c r="H39" s="4">
-        <v>1</v>
-      </c>
-      <c r="I39" s="6">
-        <v>2</v>
-      </c>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>47</v>
       </c>
@@ -1982,21 +2434,32 @@
       <c r="C40" s="2">
         <v>1</v>
       </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="4">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="3">
         <v>41</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="3">
         <v>3</v>
       </c>
-      <c r="I40" s="6">
-        <v>2</v>
-      </c>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I40" s="4">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L40" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
@@ -2009,192 +2472,291 @@
       <c r="D41" s="2">
         <v>2</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="4">
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="3">
         <v>40</v>
       </c>
-      <c r="I41" s="6">
-        <v>2</v>
-      </c>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I41" s="4">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L41" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="2">
         <v>40</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="4">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="3">
         <v>39</v>
       </c>
-      <c r="G42" s="4">
-        <v>1</v>
-      </c>
-      <c r="H42" s="7"/>
-      <c r="I42" s="6">
-        <v>2</v>
-      </c>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="5"/>
+      <c r="I42" s="4">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="2">
         <v>12</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="4">
-        <v>1</v>
-      </c>
-      <c r="G43" s="4">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
         <v>10</v>
       </c>
-      <c r="H43" s="4">
-        <v>1</v>
-      </c>
-      <c r="I43" s="6">
-        <v>1</v>
-      </c>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B44" s="2">
         <v>14</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="4">
-        <v>1</v>
-      </c>
-      <c r="G44" s="4">
-        <v>12</v>
-      </c>
-      <c r="H44" s="4">
-        <v>1</v>
-      </c>
-      <c r="I44" s="6">
-        <v>1</v>
-      </c>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>12</v>
+      </c>
+      <c r="H44" s="3">
+        <v>1</v>
+      </c>
+      <c r="I44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="2">
         <v>12</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="4">
-        <v>1</v>
-      </c>
-      <c r="G45" s="4">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
         <v>11</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="6">
-        <v>1</v>
-      </c>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H45" s="5"/>
+      <c r="I45" s="4">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="2">
         <v>9</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="4">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="3">
         <v>9</v>
       </c>
-      <c r="I46" s="6">
-        <v>1</v>
-      </c>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I46" s="4">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="2">
         <v>13</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="4">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="3">
         <v>13</v>
       </c>
-      <c r="I47" s="6">
-        <v>1</v>
-      </c>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I47" s="4">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B48" s="2">
         <v>4</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="4">
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="3">
         <v>4</v>
       </c>
-      <c r="I48" s="6">
-        <v>1</v>
-      </c>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I48" s="4">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L48" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B49" s="2">
         <v>4</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="C49" s="5"/>
       <c r="D49" s="2">
         <v>1</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="4">
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="3">
         <v>5</v>
       </c>
-      <c r="I49" s="6">
-        <v>1</v>
-      </c>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I49" s="4">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L49" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
@@ -2204,21 +2766,32 @@
       <c r="C50" s="2">
         <v>3</v>
       </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="4">
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="3">
         <v>81</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="3">
         <v>6</v>
       </c>
-      <c r="H50" s="7"/>
-      <c r="I50" s="6">
+      <c r="H50" s="5"/>
+      <c r="I50" s="4">
         <v>4</v>
       </c>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L50" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
@@ -2231,110 +2804,165 @@
       <c r="D51" s="2">
         <v>2</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="4">
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="3">
         <v>43</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="3">
         <v>7</v>
       </c>
-      <c r="I51" s="6">
-        <v>2</v>
-      </c>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I51" s="4">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B52" s="2">
         <v>21</v>
       </c>
-      <c r="C52" s="7"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="2">
         <v>4</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="4">
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="3">
         <v>25</v>
       </c>
-      <c r="I52" s="6">
-        <v>1</v>
-      </c>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I52" s="4">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L52" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B53" s="2">
         <v>26</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="4">
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="3">
         <v>26</v>
       </c>
-      <c r="I53" s="6">
-        <v>1</v>
-      </c>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I53" s="4">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L53" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B54" s="2">
         <v>7</v>
       </c>
-      <c r="C54" s="7"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="2">
         <v>1</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="4">
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="3">
         <v>8</v>
       </c>
-      <c r="I54" s="6">
-        <v>1</v>
-      </c>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I54" s="4">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L54" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B55" s="2">
         <v>54</v>
       </c>
-      <c r="C55" s="7"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="2">
         <v>1</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="4">
+      <c r="E55" s="5"/>
+      <c r="F55" s="3">
         <v>52</v>
       </c>
-      <c r="G55" s="4">
-        <v>1</v>
-      </c>
-      <c r="H55" s="4">
-        <v>2</v>
-      </c>
-      <c r="I55" s="6">
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3">
+        <v>2</v>
+      </c>
+      <c r="I55" s="4">
         <v>3</v>
       </c>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L55" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>63</v>
       </c>
@@ -2344,43 +2972,65 @@
       <c r="C56" s="2">
         <v>1</v>
       </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="4">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="3">
         <v>16</v>
       </c>
-      <c r="H56" s="4">
-        <v>2</v>
-      </c>
-      <c r="I56" s="6">
-        <v>1</v>
-      </c>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H56" s="3">
+        <v>2</v>
+      </c>
+      <c r="I56" s="4">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L56" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B57" s="2">
         <v>18</v>
       </c>
-      <c r="C57" s="7"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="2">
         <v>1</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="4">
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="3">
         <v>19</v>
       </c>
-      <c r="I57" s="6">
-        <v>1</v>
-      </c>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I57" s="4">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L57" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
@@ -2393,40 +3043,62 @@
       <c r="D58" s="2">
         <v>6</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="4">
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="3">
         <v>135</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H58" s="3">
         <v>7</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="4">
         <v>5</v>
       </c>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L58" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="7"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="2">
         <v>1</v>
       </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="4">
-        <v>1</v>
-      </c>
-      <c r="I59" s="6">
-        <v>1</v>
-      </c>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="3">
+        <v>1</v>
+      </c>
+      <c r="I59" s="4">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L59" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>67</v>
       </c>
@@ -2439,60 +3111,93 @@
       <c r="D60" s="2">
         <v>9</v>
       </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="4">
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="3">
         <v>3</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H60" s="3">
         <v>211</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="4">
         <v>7</v>
       </c>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L60" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B61" s="2">
         <v>1</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="4">
-        <v>1</v>
-      </c>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="6">
-        <v>1</v>
-      </c>
-      <c r="J61" s="3"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="4">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L61" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B62" s="2">
         <v>5</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="4">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="3">
         <v>5</v>
       </c>
-      <c r="H62" s="7"/>
-      <c r="I62" s="6">
-        <v>1</v>
-      </c>
-      <c r="J62" s="3"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H62" s="5"/>
+      <c r="I62" s="4">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L62" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>70</v>
       </c>
@@ -2502,19 +3207,30 @@
       <c r="C63" s="2">
         <v>3</v>
       </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="4">
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="3">
         <v>160</v>
       </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="6">
+      <c r="H63" s="5"/>
+      <c r="I63" s="4">
         <v>6</v>
       </c>
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J63">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>71</v>
       </c>
@@ -2527,40 +3243,62 @@
       <c r="D64" s="2">
         <v>3</v>
       </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="4">
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="3">
         <v>4</v>
       </c>
-      <c r="H64" s="4">
+      <c r="H64" s="3">
         <v>114</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="4">
         <v>4</v>
       </c>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J64">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="L64" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="7"/>
+      <c r="B65" s="5"/>
       <c r="C65" s="2">
         <v>1</v>
       </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="4">
-        <v>1</v>
-      </c>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="6">
-        <v>1</v>
-      </c>
-      <c r="J65" s="3"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="3">
+        <v>1</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="4">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
@@ -2570,43 +3308,65 @@
       <c r="C66" s="2">
         <v>1</v>
       </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="4">
-        <v>2</v>
-      </c>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="6">
-        <v>1</v>
-      </c>
-      <c r="J66" s="3"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="3">
+        <v>2</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="4">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L66" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B67" s="7"/>
+      <c r="B67" s="5"/>
       <c r="C67" s="2">
         <v>1</v>
       </c>
       <c r="D67" s="2">
         <v>1</v>
       </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="4">
-        <v>1</v>
-      </c>
-      <c r="G67" s="4">
-        <v>1</v>
-      </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="6">
-        <v>1</v>
-      </c>
-      <c r="J67" s="3"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="E67" s="5"/>
+      <c r="F67" s="3">
+        <v>1</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67" s="5"/>
+      <c r="I67" s="4">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J130" si="3">CHOOSE(MID(A67, LEN(A67)-1, 1), 9, 10, 11, 12)</f>
+        <v>10</v>
+      </c>
+      <c r="L67" t="str">
+        <f t="shared" ref="L67:L130" si="4">IF(J67=11, IF(F67&gt;=SUM(G67:H67)/3, TRUE, ""), "")</f>
+        <v/>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" ref="M67:M130" si="5">IF(J67=12, IF(G67&gt;=SUM(H67)/3, TRUE, ""), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>75</v>
       </c>
@@ -2616,25 +3376,36 @@
       <c r="C68" s="2">
         <v>6</v>
       </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="4">
-        <v>1</v>
-      </c>
-      <c r="F68" s="4">
+      <c r="D68" s="5"/>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="3">
         <v>185</v>
       </c>
-      <c r="G68" s="4">
+      <c r="G68" s="3">
         <v>8</v>
       </c>
-      <c r="H68" s="4">
-        <v>1</v>
-      </c>
-      <c r="I68" s="6">
+      <c r="H68" s="3">
+        <v>1</v>
+      </c>
+      <c r="I68" s="4">
         <v>7</v>
       </c>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J68">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L68" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>76</v>
       </c>
@@ -2644,131 +3415,197 @@
       <c r="C69" s="2">
         <v>2</v>
       </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="4">
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="3">
         <v>214</v>
       </c>
-      <c r="G69" s="4">
-        <v>1</v>
-      </c>
-      <c r="H69" s="7"/>
-      <c r="I69" s="6">
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="5"/>
+      <c r="I69" s="4">
         <v>7</v>
       </c>
-      <c r="J69" s="3"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J69">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B70" s="2">
         <v>53</v>
       </c>
-      <c r="C70" s="7"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="2">
         <v>2</v>
       </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="4">
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="3">
         <v>54</v>
       </c>
-      <c r="H70" s="4">
-        <v>1</v>
-      </c>
-      <c r="I70" s="6">
-        <v>2</v>
-      </c>
-      <c r="J70" s="5"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
+      <c r="I70" s="4">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L70" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B71" s="2">
         <v>63</v>
       </c>
-      <c r="C71" s="7"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="2">
         <v>2</v>
       </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="4">
-        <v>1</v>
-      </c>
-      <c r="H71" s="4">
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3">
         <v>64</v>
       </c>
-      <c r="I71" s="6">
-        <v>2</v>
-      </c>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I71" s="4">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L71" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="4">
-        <v>1</v>
-      </c>
-      <c r="I72" s="6">
-        <v>1</v>
-      </c>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
+      <c r="I72" s="4">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L72" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B73" s="2">
         <v>3</v>
       </c>
-      <c r="C73" s="7"/>
+      <c r="C73" s="5"/>
       <c r="D73" s="2">
         <v>5</v>
       </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="4">
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="3">
         <v>8</v>
       </c>
-      <c r="I73" s="6">
-        <v>1</v>
-      </c>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I73" s="4">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L73" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
       </c>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="4">
-        <v>1</v>
-      </c>
-      <c r="I74" s="6">
-        <v>1</v>
-      </c>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="3">
+        <v>1</v>
+      </c>
+      <c r="I74" s="4">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L74" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M74" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>82</v>
       </c>
@@ -2781,22 +3618,33 @@
       <c r="D75" s="2">
         <v>1</v>
       </c>
-      <c r="E75" s="4">
-        <v>1</v>
-      </c>
-      <c r="F75" s="4">
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="3">
         <v>89</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="3">
         <v>7</v>
       </c>
-      <c r="H75" s="7"/>
-      <c r="I75" s="6">
+      <c r="H75" s="5"/>
+      <c r="I75" s="4">
         <v>3</v>
       </c>
-      <c r="J75" s="3"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J75">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L75" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M75" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>83</v>
       </c>
@@ -2809,20 +3657,31 @@
       <c r="D76" s="2">
         <v>5</v>
       </c>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="4">
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="3">
         <v>107</v>
       </c>
-      <c r="H76" s="4">
+      <c r="H76" s="3">
         <v>8</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I76" s="4">
         <v>4</v>
       </c>
-      <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J76">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L76" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M76" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>84</v>
       </c>
@@ -2835,62 +3694,95 @@
       <c r="D77" s="2">
         <v>9</v>
       </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="4">
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="3">
         <v>5</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="3">
         <v>125</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I77" s="4">
         <v>4</v>
       </c>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J77">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L77" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M77" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B78" s="7"/>
+      <c r="B78" s="5"/>
       <c r="C78" s="2">
         <v>1</v>
       </c>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="4">
-        <v>1</v>
-      </c>
-      <c r="I78" s="6">
-        <v>1</v>
-      </c>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
+      <c r="I78" s="4">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L78" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B79" s="2">
         <v>73</v>
       </c>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="4">
-        <v>1</v>
-      </c>
-      <c r="G79" s="4">
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3">
         <v>72</v>
       </c>
-      <c r="H79" s="7"/>
-      <c r="I79" s="6">
+      <c r="H79" s="5"/>
+      <c r="I79" s="4">
         <v>3</v>
       </c>
-      <c r="J79" s="3"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J79">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L79" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>87</v>
       </c>
@@ -2900,19 +3792,30 @@
       <c r="C80" s="2">
         <v>1</v>
       </c>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="4">
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="3">
         <v>63</v>
       </c>
-      <c r="I80" s="6">
-        <v>2</v>
-      </c>
-      <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I80" s="4">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L80" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M80" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>88</v>
       </c>
@@ -2925,22 +3828,33 @@
       <c r="D81" s="2">
         <v>1</v>
       </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="4">
+      <c r="E81" s="5"/>
+      <c r="F81" s="3">
         <v>99</v>
       </c>
-      <c r="G81" s="4">
+      <c r="G81" s="3">
         <v>14</v>
       </c>
-      <c r="H81" s="4">
+      <c r="H81" s="3">
         <v>10</v>
       </c>
-      <c r="I81" s="6">
+      <c r="I81" s="4">
         <v>6</v>
       </c>
-      <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J81">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L81" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M81" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>89</v>
       </c>
@@ -2953,20 +3867,31 @@
       <c r="D82" s="2">
         <v>2</v>
       </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="4">
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="3">
         <v>41</v>
       </c>
-      <c r="H82" s="4">
+      <c r="H82" s="3">
         <v>23</v>
       </c>
-      <c r="I82" s="6">
+      <c r="I82" s="4">
         <v>3</v>
       </c>
-      <c r="J82" s="5"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J82">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L82" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M82" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>90</v>
       </c>
@@ -2979,60 +3904,93 @@
       <c r="D83" s="2">
         <v>8</v>
       </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="4">
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="3">
         <v>65</v>
       </c>
-      <c r="I83" s="6">
+      <c r="I83" s="4">
         <v>3</v>
       </c>
-      <c r="J83" s="5"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J83">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B84" s="2">
         <v>93</v>
       </c>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="4">
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="3">
         <v>93</v>
       </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="6">
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="4">
         <v>3</v>
       </c>
-      <c r="J84" s="3"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J84">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B85" s="2">
         <v>74</v>
       </c>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="4">
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="3">
         <v>73</v>
       </c>
-      <c r="G85" s="4">
-        <v>1</v>
-      </c>
-      <c r="H85" s="7"/>
-      <c r="I85" s="6">
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
+      <c r="H85" s="5"/>
+      <c r="I85" s="4">
         <v>3</v>
       </c>
-      <c r="J85" s="3"/>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J85">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>93</v>
       </c>
@@ -3042,21 +4000,32 @@
       <c r="C86" s="2">
         <v>4</v>
       </c>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="4">
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="3">
         <v>58</v>
       </c>
-      <c r="H86" s="4">
+      <c r="H86" s="3">
         <v>8</v>
       </c>
-      <c r="I86" s="6">
+      <c r="I86" s="4">
         <v>3</v>
       </c>
-      <c r="J86" s="5"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J86">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>94</v>
       </c>
@@ -3069,60 +4038,93 @@
       <c r="D87" s="2">
         <v>3</v>
       </c>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="4">
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="3">
         <v>85</v>
       </c>
-      <c r="I87" s="6">
+      <c r="I87" s="4">
         <v>3</v>
       </c>
-      <c r="J87" s="5"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J87">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B88" s="2">
         <v>101</v>
       </c>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="4">
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="3">
         <v>101</v>
       </c>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="6">
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="4">
         <v>3</v>
       </c>
-      <c r="J88" s="3"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J88">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B89" s="2">
         <v>93</v>
       </c>
-      <c r="C89" s="7"/>
+      <c r="C89" s="5"/>
       <c r="D89" s="2">
         <v>1</v>
       </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="4">
+      <c r="E89" s="5"/>
+      <c r="F89" s="3">
         <v>94</v>
       </c>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="6">
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="4">
         <v>3</v>
       </c>
-      <c r="J89" s="3"/>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J89">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>97</v>
       </c>
@@ -3135,24 +4137,35 @@
       <c r="D90" s="2">
         <v>1</v>
       </c>
-      <c r="E90" s="4">
-        <v>1</v>
-      </c>
-      <c r="F90" s="4">
+      <c r="E90" s="3">
+        <v>1</v>
+      </c>
+      <c r="F90" s="3">
         <v>204</v>
       </c>
-      <c r="G90" s="4">
+      <c r="G90" s="3">
         <v>8</v>
       </c>
-      <c r="H90" s="4">
-        <v>2</v>
-      </c>
-      <c r="I90" s="6">
+      <c r="H90" s="3">
+        <v>2</v>
+      </c>
+      <c r="I90" s="4">
         <v>7</v>
       </c>
-      <c r="J90" s="5"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J90">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>98</v>
       </c>
@@ -3162,151 +4175,228 @@
       <c r="C91" s="2">
         <v>1</v>
       </c>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="4">
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="3">
         <v>3</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H91" s="3">
         <v>3</v>
       </c>
-      <c r="I91" s="6">
-        <v>1</v>
-      </c>
-      <c r="J91" s="5"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I91" s="4">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B92" s="2">
         <v>21</v>
       </c>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="4">
-        <v>2</v>
-      </c>
-      <c r="H92" s="4">
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="3">
+        <v>2</v>
+      </c>
+      <c r="H92" s="3">
         <v>19</v>
       </c>
-      <c r="I92" s="6">
-        <v>1</v>
-      </c>
-      <c r="J92" s="5"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I92" s="4">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B93" s="2">
         <v>100</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="4">
-        <v>1</v>
-      </c>
-      <c r="F93" s="4">
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="3">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
         <v>99</v>
       </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="6">
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="4">
         <v>4</v>
       </c>
-      <c r="J93" s="3"/>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J93">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B94" s="2">
         <v>53</v>
       </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="4">
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="3">
         <v>50</v>
       </c>
-      <c r="H94" s="4">
+      <c r="H94" s="3">
         <v>3</v>
       </c>
-      <c r="I94" s="6">
+      <c r="I94" s="4">
         <v>3</v>
       </c>
-      <c r="J94" s="5"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J94">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B95" s="2">
         <v>69</v>
       </c>
-      <c r="C95" s="7"/>
+      <c r="C95" s="5"/>
       <c r="D95" s="2">
         <v>1</v>
       </c>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="4">
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="3">
         <v>70</v>
       </c>
-      <c r="I95" s="6">
+      <c r="I95" s="4">
         <v>3</v>
       </c>
-      <c r="J95" s="5"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J95">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B96" s="2">
         <v>58</v>
       </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="4">
-        <v>1</v>
-      </c>
-      <c r="G96" s="4">
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="3">
+        <v>1</v>
+      </c>
+      <c r="G96" s="3">
         <v>57</v>
       </c>
-      <c r="H96" s="7"/>
-      <c r="I96" s="6">
-        <v>2</v>
-      </c>
-      <c r="J96" s="3"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H96" s="5"/>
+      <c r="I96" s="4">
+        <v>2</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B97" s="2">
         <v>72</v>
       </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="4">
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="3">
         <v>72</v>
       </c>
-      <c r="H97" s="7"/>
-      <c r="I97" s="6">
+      <c r="H97" s="5"/>
+      <c r="I97" s="4">
         <v>3</v>
       </c>
-      <c r="J97" s="3"/>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J97">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>105</v>
       </c>
@@ -3319,44 +4409,66 @@
       <c r="D98" s="2">
         <v>3</v>
       </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="4">
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="3">
         <v>219</v>
       </c>
-      <c r="H98" s="4">
-        <v>2</v>
-      </c>
-      <c r="I98" s="6">
+      <c r="H98" s="3">
+        <v>2</v>
+      </c>
+      <c r="I98" s="4">
         <v>7</v>
       </c>
-      <c r="J98" s="5"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J98">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B99" s="2">
         <v>20</v>
       </c>
-      <c r="C99" s="7"/>
+      <c r="C99" s="5"/>
       <c r="D99" s="2">
         <v>1</v>
       </c>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="4">
-        <v>1</v>
-      </c>
-      <c r="H99" s="4">
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="3">
+        <v>1</v>
+      </c>
+      <c r="H99" s="3">
         <v>20</v>
       </c>
-      <c r="I99" s="6">
-        <v>1</v>
-      </c>
-      <c r="J99" s="5"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I99" s="4">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>107</v>
       </c>
@@ -3366,23 +4478,34 @@
       <c r="C100" s="2">
         <v>41</v>
       </c>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="4">
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="3">
         <v>65</v>
       </c>
-      <c r="G100" s="4">
-        <v>1</v>
-      </c>
-      <c r="H100" s="4">
-        <v>1</v>
-      </c>
-      <c r="I100" s="6">
-        <v>2</v>
-      </c>
-      <c r="J100" s="5"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
+      <c r="H100" s="3">
+        <v>1</v>
+      </c>
+      <c r="I100" s="4">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>108</v>
       </c>
@@ -3392,21 +4515,32 @@
       <c r="C101" s="2">
         <v>8</v>
       </c>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="4">
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="3">
         <v>82</v>
       </c>
-      <c r="G101" s="4">
-        <v>1</v>
-      </c>
-      <c r="H101" s="7"/>
-      <c r="I101" s="6">
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
+      <c r="H101" s="5"/>
+      <c r="I101" s="4">
         <v>3</v>
       </c>
-      <c r="J101" s="3"/>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J101">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>109</v>
       </c>
@@ -3416,21 +4550,32 @@
       <c r="C102" s="2">
         <v>26</v>
       </c>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="4">
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="3">
         <v>160</v>
       </c>
-      <c r="G102" s="4">
+      <c r="G102" s="3">
         <v>8</v>
       </c>
-      <c r="H102" s="7"/>
-      <c r="I102" s="6">
+      <c r="H102" s="5"/>
+      <c r="I102" s="4">
         <v>5</v>
       </c>
-      <c r="J102" s="3"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J102">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>110</v>
       </c>
@@ -3443,40 +4588,62 @@
       <c r="D103" s="2">
         <v>9</v>
       </c>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="4">
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="3">
         <v>25</v>
       </c>
-      <c r="I103" s="6">
-        <v>1</v>
-      </c>
-      <c r="J103" s="5"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I103" s="4">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B104" s="2">
         <v>40</v>
       </c>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="4">
-        <v>2</v>
-      </c>
-      <c r="H104" s="4">
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="3">
+        <v>2</v>
+      </c>
+      <c r="H104" s="3">
         <v>38</v>
       </c>
-      <c r="I104" s="6">
-        <v>2</v>
-      </c>
-      <c r="J104" s="5"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I104" s="4">
+        <v>2</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>112</v>
       </c>
@@ -3489,70 +4656,103 @@
       <c r="D105" s="2">
         <v>2</v>
       </c>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="4">
-        <v>12</v>
-      </c>
-      <c r="H105" s="4">
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="3">
+        <v>12</v>
+      </c>
+      <c r="H105" s="3">
         <v>78</v>
       </c>
-      <c r="I105" s="6">
+      <c r="I105" s="4">
         <v>3</v>
       </c>
-      <c r="J105" s="5"/>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J105">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B106" s="2">
         <v>130</v>
       </c>
-      <c r="C106" s="7"/>
+      <c r="C106" s="5"/>
       <c r="D106" s="2">
         <v>1</v>
       </c>
-      <c r="E106" s="7"/>
-      <c r="F106" s="4">
+      <c r="E106" s="5"/>
+      <c r="F106" s="3">
         <v>111</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G106" s="3">
         <v>11</v>
       </c>
-      <c r="H106" s="4">
+      <c r="H106" s="3">
         <v>9</v>
       </c>
-      <c r="I106" s="6">
+      <c r="I106" s="4">
         <v>5</v>
       </c>
-      <c r="J106" s="5"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J106">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B107" s="2">
         <v>17</v>
       </c>
-      <c r="C107" s="7"/>
+      <c r="C107" s="5"/>
       <c r="D107" s="2">
         <v>1</v>
       </c>
-      <c r="E107" s="7"/>
-      <c r="F107" s="4">
-        <v>1</v>
-      </c>
-      <c r="G107" s="4">
+      <c r="E107" s="5"/>
+      <c r="F107" s="3">
+        <v>1</v>
+      </c>
+      <c r="G107" s="3">
         <v>17</v>
       </c>
-      <c r="H107" s="7"/>
-      <c r="I107" s="6">
-        <v>1</v>
-      </c>
-      <c r="J107" s="3"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H107" s="5"/>
+      <c r="I107" s="4">
+        <v>1</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>115</v>
       </c>
@@ -3562,261 +4762,393 @@
       <c r="C108" s="2">
         <v>1</v>
       </c>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="4">
-        <v>12</v>
-      </c>
-      <c r="I108" s="6">
-        <v>1</v>
-      </c>
-      <c r="J108" s="5"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="3">
+        <v>12</v>
+      </c>
+      <c r="I108" s="4">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L108" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M108" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B109" s="2">
         <v>11</v>
       </c>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="4">
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="3">
         <v>10</v>
       </c>
-      <c r="G109" s="4">
-        <v>1</v>
-      </c>
-      <c r="H109" s="7"/>
-      <c r="I109" s="6">
-        <v>1</v>
-      </c>
-      <c r="J109" s="3"/>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G109" s="3">
+        <v>1</v>
+      </c>
+      <c r="H109" s="5"/>
+      <c r="I109" s="4">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L109" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M109" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B110" s="2">
         <v>1</v>
       </c>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="4">
-        <v>1</v>
-      </c>
-      <c r="H110" s="7"/>
-      <c r="I110" s="6">
-        <v>1</v>
-      </c>
-      <c r="J110" s="3"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="3">
+        <v>1</v>
+      </c>
+      <c r="H110" s="5"/>
+      <c r="I110" s="4">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L110" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M110" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B111" s="7"/>
+      <c r="B111" s="5"/>
       <c r="C111" s="2">
         <v>1</v>
       </c>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="4">
-        <v>1</v>
-      </c>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="6">
-        <v>1</v>
-      </c>
-      <c r="J111" s="3"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="3">
+        <v>1</v>
+      </c>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="4">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="L111" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M111" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B112" s="2">
         <v>46</v>
       </c>
-      <c r="C112" s="7"/>
+      <c r="C112" s="5"/>
       <c r="D112" s="2">
         <v>1</v>
       </c>
-      <c r="E112" s="7"/>
-      <c r="F112" s="4">
+      <c r="E112" s="5"/>
+      <c r="F112" s="3">
         <v>43</v>
       </c>
-      <c r="G112" s="4">
+      <c r="G112" s="3">
         <v>3</v>
       </c>
-      <c r="H112" s="4">
-        <v>1</v>
-      </c>
-      <c r="I112" s="6">
-        <v>2</v>
-      </c>
-      <c r="J112" s="5"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
+      <c r="I112" s="4">
+        <v>2</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L112" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M112" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B113" s="2">
         <v>37</v>
       </c>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="4">
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="3">
         <v>4</v>
       </c>
-      <c r="G113" s="4">
+      <c r="G113" s="3">
         <v>30</v>
       </c>
-      <c r="H113" s="4">
+      <c r="H113" s="3">
         <v>3</v>
       </c>
-      <c r="I113" s="6">
-        <v>2</v>
-      </c>
-      <c r="J113" s="5"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I113" s="4">
+        <v>2</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L113" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M113" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B114" s="2">
         <v>15</v>
       </c>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="4">
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="3">
         <v>13</v>
       </c>
-      <c r="H114" s="4">
-        <v>2</v>
-      </c>
-      <c r="I114" s="6">
-        <v>1</v>
-      </c>
-      <c r="J114" s="5"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H114" s="3">
+        <v>2</v>
+      </c>
+      <c r="I114" s="4">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L114" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M114" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B115" s="2">
         <v>21</v>
       </c>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="4">
-        <v>1</v>
-      </c>
-      <c r="G115" s="4">
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3">
         <v>15</v>
       </c>
-      <c r="H115" s="4">
+      <c r="H115" s="3">
         <v>5</v>
       </c>
-      <c r="I115" s="6">
-        <v>1</v>
-      </c>
-      <c r="J115" s="5"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I115" s="4">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L115" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M115" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B116" s="2">
         <v>23</v>
       </c>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="4">
-        <v>2</v>
-      </c>
-      <c r="H116" s="4">
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="3">
+        <v>2</v>
+      </c>
+      <c r="H116" s="3">
         <v>21</v>
       </c>
-      <c r="I116" s="6">
-        <v>1</v>
-      </c>
-      <c r="J116" s="5"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I116" s="4">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L116" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M116" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B117" s="2">
         <v>18</v>
       </c>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="4">
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="3">
         <v>18</v>
       </c>
-      <c r="I117" s="6">
-        <v>1</v>
-      </c>
-      <c r="J117" s="5"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I117" s="4">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L117" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M117" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B118" s="2">
         <v>18</v>
       </c>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="4">
-        <v>2</v>
-      </c>
-      <c r="H118" s="4">
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="3">
+        <v>2</v>
+      </c>
+      <c r="H118" s="3">
         <v>16</v>
       </c>
-      <c r="I118" s="6">
-        <v>1</v>
-      </c>
-      <c r="J118" s="5"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I118" s="4">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L118" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M118" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B119" s="2">
         <v>14</v>
       </c>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="4">
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="3">
         <v>14</v>
       </c>
-      <c r="I119" s="6">
-        <v>1</v>
-      </c>
-      <c r="J119" s="5"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I119" s="4">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L119" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M119" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>127</v>
       </c>
@@ -3829,20 +5161,31 @@
       <c r="D120" s="2">
         <v>38</v>
       </c>
-      <c r="E120" s="7"/>
-      <c r="F120" s="4">
+      <c r="E120" s="5"/>
+      <c r="F120" s="3">
         <v>47</v>
       </c>
-      <c r="G120" s="4">
+      <c r="G120" s="3">
         <v>27</v>
       </c>
-      <c r="H120" s="7"/>
-      <c r="I120" s="6">
+      <c r="H120" s="5"/>
+      <c r="I120" s="4">
         <v>3</v>
       </c>
-      <c r="J120" s="3"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J120">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L120" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M120" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>128</v>
       </c>
@@ -3855,20 +5198,31 @@
       <c r="D121" s="2">
         <v>13</v>
       </c>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="4">
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="3">
         <v>42</v>
       </c>
-      <c r="H121" s="4">
+      <c r="H121" s="3">
         <v>7</v>
       </c>
-      <c r="I121" s="6">
-        <v>2</v>
-      </c>
-      <c r="J121" s="5"/>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I121" s="4">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L121" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M121" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>129</v>
       </c>
@@ -3881,20 +5235,31 @@
       <c r="D122" s="2">
         <v>8</v>
       </c>
-      <c r="E122" s="7"/>
-      <c r="F122" s="4">
+      <c r="E122" s="5"/>
+      <c r="F122" s="3">
         <v>9</v>
       </c>
-      <c r="G122" s="4">
+      <c r="G122" s="3">
         <v>37</v>
       </c>
-      <c r="H122" s="7"/>
-      <c r="I122" s="6">
-        <v>2</v>
-      </c>
-      <c r="J122" s="3"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H122" s="5"/>
+      <c r="I122" s="4">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L122" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M122" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>130</v>
       </c>
@@ -3907,20 +5272,31 @@
       <c r="D123" s="2">
         <v>3</v>
       </c>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="4">
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="3">
         <v>7</v>
       </c>
-      <c r="H123" s="4">
+      <c r="H123" s="3">
         <v>25</v>
       </c>
-      <c r="I123" s="6">
-        <v>2</v>
-      </c>
-      <c r="J123" s="5"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I123" s="4">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L123" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M123" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>131</v>
       </c>
@@ -3933,22 +5309,33 @@
       <c r="D124" s="2">
         <v>20</v>
       </c>
-      <c r="E124" s="7"/>
-      <c r="F124" s="4">
+      <c r="E124" s="5"/>
+      <c r="F124" s="3">
         <v>18</v>
       </c>
-      <c r="G124" s="4">
+      <c r="G124" s="3">
         <v>87</v>
       </c>
-      <c r="H124" s="4">
+      <c r="H124" s="3">
         <v>10</v>
       </c>
-      <c r="I124" s="6">
+      <c r="I124" s="4">
         <v>4</v>
       </c>
-      <c r="J124" s="5"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J124">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L124" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M124" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>132</v>
       </c>
@@ -3961,122 +5348,188 @@
       <c r="D125" s="2">
         <v>20</v>
       </c>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="4">
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="3">
         <v>29</v>
       </c>
-      <c r="H125" s="4">
+      <c r="H125" s="3">
         <v>91</v>
       </c>
-      <c r="I125" s="6">
+      <c r="I125" s="4">
         <v>4</v>
       </c>
-      <c r="J125" s="5"/>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J125">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L125" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M125" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B126" s="2">
         <v>22</v>
       </c>
-      <c r="C126" s="7"/>
+      <c r="C126" s="5"/>
       <c r="D126" s="2">
         <v>3</v>
       </c>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="4">
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="3">
         <v>25</v>
       </c>
-      <c r="I126" s="6">
-        <v>1</v>
-      </c>
-      <c r="J126" s="5"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I126" s="4">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L126" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M126" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B127" s="2">
         <v>1</v>
       </c>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="4">
-        <v>1</v>
-      </c>
-      <c r="I127" s="6">
-        <v>1</v>
-      </c>
-      <c r="J127" s="5"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="3">
+        <v>1</v>
+      </c>
+      <c r="I127" s="4">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L127" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M127" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B128" s="2">
         <v>1</v>
       </c>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="4">
-        <v>1</v>
-      </c>
-      <c r="I128" s="6">
-        <v>1</v>
-      </c>
-      <c r="J128" s="5"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C128" s="5"/>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="3">
+        <v>1</v>
+      </c>
+      <c r="I128" s="4">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="L128" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M128" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B129" s="2">
         <v>94</v>
       </c>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="4">
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="3">
         <v>94</v>
       </c>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="6">
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="4">
         <v>3</v>
       </c>
-      <c r="J129" s="3"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J129">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="L129" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M129" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B130" s="2">
         <v>75</v>
       </c>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="4">
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="3">
         <v>75</v>
       </c>
-      <c r="H130" s="7"/>
-      <c r="I130" s="6">
+      <c r="H130" s="5"/>
+      <c r="I130" s="4">
         <v>3</v>
       </c>
-      <c r="J130" s="3"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J130">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="L130" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M130" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>138</v>
       </c>
@@ -4089,38 +5542,60 @@
       <c r="D131" s="2">
         <v>1</v>
       </c>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="4">
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="3">
         <v>64</v>
       </c>
-      <c r="I131" s="6">
+      <c r="I131" s="4">
         <v>3</v>
       </c>
-      <c r="J131" s="5"/>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J131">
+        <f t="shared" ref="J131:J166" si="6">CHOOSE(MID(A131, LEN(A131)-1, 1), 9, 10, 11, 12)</f>
+        <v>12</v>
+      </c>
+      <c r="L131" t="str">
+        <f t="shared" ref="L131:L166" si="7">IF(J131=11, IF(F131&gt;=SUM(G131:H131)/3, TRUE, ""), "")</f>
+        <v/>
+      </c>
+      <c r="M131" t="str">
+        <f t="shared" ref="M131:M166" si="8">IF(J131=12, IF(G131&gt;=SUM(H131)/3, TRUE, ""), "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B132" s="2">
         <v>2</v>
       </c>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="4">
-        <v>2</v>
-      </c>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="6">
-        <v>1</v>
-      </c>
-      <c r="J132" s="3"/>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="3">
+        <v>2</v>
+      </c>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="4">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="L132" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M132" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>140</v>
       </c>
@@ -4130,25 +5605,36 @@
       <c r="C133" s="2">
         <v>2</v>
       </c>
-      <c r="D133" s="7"/>
-      <c r="E133" s="4">
-        <v>1</v>
-      </c>
-      <c r="F133" s="4">
+      <c r="D133" s="5"/>
+      <c r="E133" s="3">
+        <v>1</v>
+      </c>
+      <c r="F133" s="3">
         <v>309</v>
       </c>
-      <c r="G133" s="4">
+      <c r="G133" s="3">
         <v>6</v>
       </c>
-      <c r="H133" s="4">
-        <v>1</v>
-      </c>
-      <c r="I133" s="6">
+      <c r="H133" s="3">
+        <v>1</v>
+      </c>
+      <c r="I133" s="4">
         <v>10</v>
       </c>
-      <c r="J133" s="5"/>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J133">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L133" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M133" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>141</v>
       </c>
@@ -4161,64 +5647,97 @@
       <c r="D134" s="2">
         <v>2</v>
       </c>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="4">
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="3">
         <v>286</v>
       </c>
-      <c r="H134" s="4">
+      <c r="H134" s="3">
         <v>8</v>
       </c>
-      <c r="I134" s="6">
+      <c r="I134" s="4">
         <v>9</v>
       </c>
-      <c r="J134" s="5"/>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J134">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="L134" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M134" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B135" s="2">
         <v>323</v>
       </c>
-      <c r="C135" s="7"/>
+      <c r="C135" s="5"/>
       <c r="D135" s="2">
         <v>8</v>
       </c>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="4">
-        <v>1</v>
-      </c>
-      <c r="H135" s="4">
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="3">
+        <v>1</v>
+      </c>
+      <c r="H135" s="3">
         <v>330</v>
       </c>
-      <c r="I135" s="6">
+      <c r="I135" s="4">
         <v>10</v>
       </c>
-      <c r="J135" s="5"/>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J135">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="L135" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M135" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B136" s="7"/>
+      <c r="B136" s="5"/>
       <c r="C136" s="2">
         <v>1</v>
       </c>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="4">
-        <v>1</v>
-      </c>
-      <c r="I136" s="6">
-        <v>1</v>
-      </c>
-      <c r="J136" s="5"/>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="3">
+        <v>1</v>
+      </c>
+      <c r="I136" s="4">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="L136" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M136" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>144</v>
       </c>
@@ -4228,19 +5747,30 @@
       <c r="C137" s="2">
         <v>10</v>
       </c>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="4">
+      <c r="D137" s="5"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="3">
         <v>30</v>
       </c>
-      <c r="H137" s="7"/>
-      <c r="I137" s="6">
-        <v>1</v>
-      </c>
-      <c r="J137" s="3"/>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H137" s="5"/>
+      <c r="I137" s="4">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="L137" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M137" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>145</v>
       </c>
@@ -4253,20 +5783,31 @@
       <c r="D138" s="2">
         <v>10</v>
       </c>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="4">
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
+      <c r="G138" s="3">
         <v>18</v>
       </c>
-      <c r="H138" s="4">
+      <c r="H138" s="3">
         <v>8</v>
       </c>
-      <c r="I138" s="6">
-        <v>1</v>
-      </c>
-      <c r="J138" s="5"/>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I138" s="4">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="L138" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M138" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>146</v>
       </c>
@@ -4279,22 +5820,33 @@
       <c r="D139" s="2">
         <v>7</v>
       </c>
-      <c r="E139" s="7"/>
-      <c r="F139" s="4">
+      <c r="E139" s="5"/>
+      <c r="F139" s="3">
         <v>8</v>
       </c>
-      <c r="G139" s="4">
+      <c r="G139" s="3">
         <v>83</v>
       </c>
-      <c r="H139" s="4">
+      <c r="H139" s="3">
         <v>21</v>
       </c>
-      <c r="I139" s="6">
+      <c r="I139" s="4">
         <v>4</v>
       </c>
-      <c r="J139" s="5"/>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J139">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="L139" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M139" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>147</v>
       </c>
@@ -4307,20 +5859,31 @@
       <c r="D140" s="2">
         <v>15</v>
       </c>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="4">
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="3">
         <v>5</v>
       </c>
-      <c r="H140" s="4">
+      <c r="H140" s="3">
         <v>100</v>
       </c>
-      <c r="I140" s="6">
+      <c r="I140" s="4">
         <v>3</v>
       </c>
-      <c r="J140" s="5"/>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J140">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="L140" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M140" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>148</v>
       </c>
@@ -4333,22 +5896,33 @@
       <c r="D141" s="2">
         <v>1</v>
       </c>
-      <c r="E141" s="7"/>
-      <c r="F141" s="4">
+      <c r="E141" s="5"/>
+      <c r="F141" s="3">
         <v>87</v>
       </c>
-      <c r="G141" s="4">
+      <c r="G141" s="3">
         <v>8</v>
       </c>
-      <c r="H141" s="4">
+      <c r="H141" s="3">
         <v>6</v>
       </c>
-      <c r="I141" s="6">
+      <c r="I141" s="4">
         <v>5</v>
       </c>
-      <c r="J141" s="5"/>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J141">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L141" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M141" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>149</v>
       </c>
@@ -4361,90 +5935,134 @@
       <c r="D142" s="2">
         <v>2</v>
       </c>
-      <c r="E142" s="7"/>
-      <c r="F142" s="4">
-        <v>1</v>
-      </c>
-      <c r="G142" s="4">
+      <c r="E142" s="5"/>
+      <c r="F142" s="3">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3">
         <v>41</v>
       </c>
-      <c r="H142" s="4">
+      <c r="H142" s="3">
         <v>15</v>
       </c>
-      <c r="I142" s="6">
+      <c r="I142" s="4">
         <v>3</v>
       </c>
-      <c r="J142" s="5"/>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J142">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="L142" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M142" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B143" s="2">
         <v>18</v>
       </c>
-      <c r="C143" s="7"/>
+      <c r="C143" s="5"/>
       <c r="D143" s="2">
         <v>4</v>
       </c>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="4">
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="3">
         <v>22</v>
       </c>
-      <c r="I143" s="6">
-        <v>1</v>
-      </c>
-      <c r="J143" s="5"/>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I143" s="4">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="L143" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M143" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B144" s="2">
         <v>23</v>
       </c>
-      <c r="C144" s="7"/>
+      <c r="C144" s="5"/>
       <c r="D144" s="2">
         <v>1</v>
       </c>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="4">
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="3">
         <v>8</v>
       </c>
-      <c r="H144" s="4">
+      <c r="H144" s="3">
         <v>16</v>
       </c>
-      <c r="I144" s="6">
-        <v>1</v>
-      </c>
-      <c r="J144" s="5"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I144" s="4">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="L144" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M144" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B145" s="2">
         <v>124</v>
       </c>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="4">
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="3">
         <v>32</v>
       </c>
-      <c r="H145" s="4">
+      <c r="H145" s="3">
         <v>92</v>
       </c>
-      <c r="I145" s="6">
+      <c r="I145" s="4">
         <v>4</v>
       </c>
-      <c r="J145" s="5"/>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J145">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="L145" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M145" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>153</v>
       </c>
@@ -4454,23 +6072,34 @@
       <c r="C146" s="2">
         <v>1</v>
       </c>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="4">
-        <v>2</v>
-      </c>
-      <c r="G146" s="4">
+      <c r="D146" s="5"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="3">
+        <v>2</v>
+      </c>
+      <c r="G146" s="3">
         <v>22</v>
       </c>
-      <c r="H146" s="4">
+      <c r="H146" s="3">
         <v>5</v>
       </c>
-      <c r="I146" s="6">
-        <v>1</v>
-      </c>
-      <c r="J146" s="5"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I146" s="4">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="L146" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M146" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>154</v>
       </c>
@@ -4480,21 +6109,32 @@
       <c r="C147" s="2">
         <v>16</v>
       </c>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="4">
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="3">
         <v>54</v>
       </c>
-      <c r="G147" s="4">
-        <v>1</v>
-      </c>
-      <c r="H147" s="7"/>
-      <c r="I147" s="6">
-        <v>2</v>
-      </c>
-      <c r="J147" s="3"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G147" s="3">
+        <v>1</v>
+      </c>
+      <c r="H147" s="5"/>
+      <c r="I147" s="4">
+        <v>2</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L147" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M147" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>155</v>
       </c>
@@ -4504,19 +6144,30 @@
       <c r="C148" s="2">
         <v>9</v>
       </c>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="4">
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="3">
         <v>92</v>
       </c>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
-      <c r="I148" s="6">
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="4">
         <v>3</v>
       </c>
-      <c r="J148" s="3"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J148">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L148" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M148" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>156</v>
       </c>
@@ -4526,19 +6177,30 @@
       <c r="C149" s="2">
         <v>1</v>
       </c>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="4">
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="3">
         <v>5</v>
       </c>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-      <c r="I149" s="6">
-        <v>1</v>
-      </c>
-      <c r="J149" s="3"/>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="4">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="L149" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M149" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>157</v>
       </c>
@@ -4548,25 +6210,36 @@
       <c r="C150" s="2">
         <v>5</v>
       </c>
-      <c r="D150" s="7"/>
-      <c r="E150" s="4">
-        <v>1</v>
-      </c>
-      <c r="F150" s="4">
+      <c r="D150" s="5"/>
+      <c r="E150" s="3">
+        <v>1</v>
+      </c>
+      <c r="F150" s="3">
         <v>110</v>
       </c>
-      <c r="G150" s="4">
+      <c r="G150" s="3">
         <v>5</v>
       </c>
-      <c r="H150" s="4">
-        <v>2</v>
-      </c>
-      <c r="I150" s="6">
+      <c r="H150" s="3">
+        <v>2</v>
+      </c>
+      <c r="I150" s="4">
         <v>4</v>
       </c>
-      <c r="J150" s="5"/>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J150">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L150" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M150" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>158</v>
       </c>
@@ -4579,44 +6252,66 @@
       <c r="D151" s="2">
         <v>2</v>
       </c>
-      <c r="E151" s="7"/>
-      <c r="F151" s="4">
+      <c r="E151" s="5"/>
+      <c r="F151" s="3">
         <v>143</v>
       </c>
-      <c r="G151" s="4">
-        <v>1</v>
-      </c>
-      <c r="H151" s="7"/>
-      <c r="I151" s="6">
+      <c r="G151" s="3">
+        <v>1</v>
+      </c>
+      <c r="H151" s="5"/>
+      <c r="I151" s="4">
         <v>5</v>
       </c>
-      <c r="J151" s="3"/>
-    </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J151">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L151" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M151" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B152" s="2">
         <v>63</v>
       </c>
-      <c r="C152" s="7"/>
+      <c r="C152" s="5"/>
       <c r="D152" s="2">
         <v>1</v>
       </c>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="4">
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="3">
         <v>57</v>
       </c>
-      <c r="H152" s="4">
+      <c r="H152" s="3">
         <v>7</v>
       </c>
-      <c r="I152" s="6">
+      <c r="I152" s="4">
         <v>3</v>
       </c>
-      <c r="J152" s="5"/>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J152">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="L152" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M152" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>160</v>
       </c>
@@ -4626,19 +6321,30 @@
       <c r="C153" s="2">
         <v>1</v>
       </c>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="4">
+      <c r="D153" s="5"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="3">
         <v>3</v>
       </c>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="6">
-        <v>1</v>
-      </c>
-      <c r="J153" s="3"/>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="4">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="L153" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M153" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>161</v>
       </c>
@@ -4648,151 +6354,228 @@
       <c r="C154" s="2">
         <v>3</v>
       </c>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="4">
+      <c r="D154" s="5"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="3">
         <v>24</v>
       </c>
-      <c r="G154" s="4">
-        <v>2</v>
-      </c>
-      <c r="H154" s="4">
-        <v>2</v>
-      </c>
-      <c r="I154" s="6">
-        <v>1</v>
-      </c>
-      <c r="J154" s="5"/>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G154" s="3">
+        <v>2</v>
+      </c>
+      <c r="H154" s="3">
+        <v>2</v>
+      </c>
+      <c r="I154" s="4">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L154" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M154" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B155" s="2">
         <v>17</v>
       </c>
-      <c r="C155" s="7"/>
+      <c r="C155" s="5"/>
       <c r="D155" s="2">
         <v>2</v>
       </c>
-      <c r="E155" s="7"/>
-      <c r="F155" s="4">
-        <v>1</v>
-      </c>
-      <c r="G155" s="4">
-        <v>12</v>
-      </c>
-      <c r="H155" s="4">
+      <c r="E155" s="5"/>
+      <c r="F155" s="3">
+        <v>1</v>
+      </c>
+      <c r="G155" s="3">
+        <v>12</v>
+      </c>
+      <c r="H155" s="3">
         <v>6</v>
       </c>
-      <c r="I155" s="6">
-        <v>1</v>
-      </c>
-      <c r="J155" s="5"/>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I155" s="4">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="L155" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M155" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B156" s="2">
         <v>16</v>
       </c>
-      <c r="C156" s="7"/>
+      <c r="C156" s="5"/>
       <c r="D156" s="2">
         <v>1</v>
       </c>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="7"/>
-      <c r="H156" s="4">
+      <c r="E156" s="5"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="3">
         <v>17</v>
       </c>
-      <c r="I156" s="6">
-        <v>1</v>
-      </c>
-      <c r="J156" s="5"/>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I156" s="4">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="L156" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M156" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B157" s="2">
         <v>3</v>
       </c>
-      <c r="C157" s="7"/>
-      <c r="D157" s="7"/>
-      <c r="E157" s="7"/>
-      <c r="F157" s="7"/>
-      <c r="G157" s="4">
+      <c r="C157" s="5"/>
+      <c r="D157" s="5"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="3">
         <v>3</v>
       </c>
-      <c r="H157" s="7"/>
-      <c r="I157" s="6">
-        <v>1</v>
-      </c>
-      <c r="J157" s="3"/>
-    </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H157" s="5"/>
+      <c r="I157" s="4">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="L157" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M157" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B158" s="2">
         <v>6</v>
       </c>
-      <c r="C158" s="7"/>
-      <c r="D158" s="7"/>
-      <c r="E158" s="7"/>
-      <c r="F158" s="7"/>
-      <c r="G158" s="7"/>
-      <c r="H158" s="4">
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="3">
         <v>6</v>
       </c>
-      <c r="I158" s="6">
-        <v>1</v>
-      </c>
-      <c r="J158" s="5"/>
-    </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I158" s="4">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="L158" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M158" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B159" s="2">
         <v>4</v>
       </c>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="4">
+      <c r="C159" s="5"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="3">
         <v>4</v>
       </c>
-      <c r="H159" s="7"/>
-      <c r="I159" s="6">
-        <v>1</v>
-      </c>
-      <c r="J159" s="3"/>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H159" s="5"/>
+      <c r="I159" s="4">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="L159" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M159" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B160" s="2">
         <v>3</v>
       </c>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
-      <c r="G160" s="7"/>
-      <c r="H160" s="4">
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="3">
         <v>3</v>
       </c>
-      <c r="I160" s="6">
-        <v>1</v>
-      </c>
-      <c r="J160" s="5"/>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I160" s="4">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="L160" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M160" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>168</v>
       </c>
@@ -4802,25 +6585,36 @@
       <c r="C161" s="2">
         <v>1</v>
       </c>
-      <c r="D161" s="7"/>
-      <c r="E161" s="4">
-        <v>1</v>
-      </c>
-      <c r="F161" s="4">
+      <c r="D161" s="5"/>
+      <c r="E161" s="3">
+        <v>1</v>
+      </c>
+      <c r="F161" s="3">
         <v>48</v>
       </c>
-      <c r="G161" s="4">
+      <c r="G161" s="3">
         <v>3</v>
       </c>
-      <c r="H161" s="4">
+      <c r="H161" s="3">
         <v>5</v>
       </c>
-      <c r="I161" s="6">
-        <v>2</v>
-      </c>
-      <c r="J161" s="5"/>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I161" s="4">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L161" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M161" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>169</v>
       </c>
@@ -4833,42 +6627,64 @@
       <c r="D162" s="2">
         <v>1</v>
       </c>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="4">
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="3">
         <v>25</v>
       </c>
-      <c r="H162" s="4">
+      <c r="H162" s="3">
         <v>3</v>
       </c>
-      <c r="I162" s="6">
-        <v>1</v>
-      </c>
-      <c r="J162" s="5"/>
-    </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I162" s="4">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="L162" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M162" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B163" s="2">
         <v>22</v>
       </c>
-      <c r="C163" s="7"/>
+      <c r="C163" s="5"/>
       <c r="D163" s="2">
         <v>1</v>
       </c>
-      <c r="E163" s="7"/>
-      <c r="F163" s="7"/>
-      <c r="G163" s="7"/>
-      <c r="H163" s="4">
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="3">
         <v>23</v>
       </c>
-      <c r="I163" s="6">
-        <v>1</v>
-      </c>
-      <c r="J163" s="5"/>
-    </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I163" s="4">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="L163" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M163" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>171</v>
       </c>
@@ -4878,25 +6694,36 @@
       <c r="C164" s="2">
         <v>1</v>
       </c>
-      <c r="D164" s="7"/>
-      <c r="E164" s="4">
-        <v>1</v>
-      </c>
-      <c r="F164" s="4">
+      <c r="D164" s="5"/>
+      <c r="E164" s="3">
+        <v>1</v>
+      </c>
+      <c r="F164" s="3">
         <v>28</v>
       </c>
-      <c r="G164" s="4">
+      <c r="G164" s="3">
         <v>5</v>
       </c>
-      <c r="H164" s="4">
+      <c r="H164" s="3">
         <v>5</v>
       </c>
-      <c r="I164" s="6">
-        <v>2</v>
-      </c>
-      <c r="J164" s="5"/>
-    </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I164" s="4">
+        <v>2</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="L164" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M164" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>172</v>
       </c>
@@ -4909,42 +6736,64 @@
       <c r="D165" s="2">
         <v>1</v>
       </c>
-      <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
-      <c r="G165" s="4">
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="3">
         <v>22</v>
       </c>
-      <c r="H165" s="4">
+      <c r="H165" s="3">
         <v>4</v>
       </c>
-      <c r="I165" s="6">
-        <v>2</v>
-      </c>
-      <c r="J165" s="5"/>
-    </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I165" s="4">
+        <v>2</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="L165" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M165" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B166" s="2">
         <v>16</v>
       </c>
-      <c r="C166" s="7"/>
+      <c r="C166" s="5"/>
       <c r="D166" s="2">
         <v>3</v>
       </c>
-      <c r="E166" s="7"/>
-      <c r="F166" s="7"/>
-      <c r="G166" s="4">
-        <v>1</v>
-      </c>
-      <c r="H166" s="4">
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="3">
+        <v>1</v>
+      </c>
+      <c r="H166" s="3">
         <v>18</v>
       </c>
-      <c r="I166" s="6">
-        <v>1</v>
-      </c>
-      <c r="J166" s="5"/>
+      <c r="I166" s="4">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="L166" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="M166" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
